--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -10,24 +10,82 @@
     <sheet name="Weigth Calculation" sheetId="1" r:id="rId1"/>
     <sheet name="Raw Calculation Step2" sheetId="2" r:id="rId2"/>
     <sheet name="Consistency" sheetId="3" r:id="rId3"/>
+    <sheet name="Result" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="23">
   <si>
-    <t>bsa</t>
+    <t>O</t>
   </si>
   <si>
-    <t>(5.0, 7.0, 9.0)</t>
+    <t>(1.0, 1.0, 1.0)</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Ethics</t>
   </si>
   <si>
-    <t>O</t>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>WasteTreatment</t>
+  </si>
+  <si>
+    <t>LeaderSkill</t>
+  </si>
+  <si>
+    <t>WorkingEnvironment</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Laborskill</t>
+  </si>
+  <si>
+    <t>Qualitytest</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Logisticsskill</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Laborcost</t>
+  </si>
+  <si>
+    <t>Basecost</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Quantity/year</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -370,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,12 +437,12 @@
     <col min="1" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -394,8 +452,14 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -405,8 +469,14 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -416,35 +486,53 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -455,24 +543,1092 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
         <v>1</v>
       </c>
     </row>
@@ -483,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,109 +1648,955 @@
     <col min="1" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.1852</v>
+        <v>0.2</v>
       </c>
       <c r="B2">
-        <v>0.1852</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.1852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.3333</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
-        <v>0.3333</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>0.1852</v>
-      </c>
-      <c r="B6">
-        <v>0.1852</v>
-      </c>
-      <c r="C6">
-        <v>0.1852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>0.3333</v>
-      </c>
-      <c r="B7">
-        <v>0.3333</v>
-      </c>
-      <c r="C7">
-        <v>0.3333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.6</v>
+        <v>0.3333</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.3333</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.3333</v>
+      </c>
+      <c r="B9">
+        <v>0.3333</v>
+      </c>
+      <c r="C9">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.3333</v>
+      </c>
+      <c r="B10">
+        <v>0.3333</v>
+      </c>
+      <c r="C10">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>0.2778</v>
-      </c>
-      <c r="B10">
-        <v>0.2778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>0.5</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.9</v>
+        <v>0.3333</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>0.3333</v>
+      </c>
+      <c r="C12">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.3333</v>
+      </c>
+      <c r="B13">
+        <v>0.3333</v>
+      </c>
+      <c r="C13">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.3333</v>
+      </c>
+      <c r="B14">
+        <v>0.3333</v>
+      </c>
+      <c r="C14">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.3333</v>
+      </c>
+      <c r="B16">
+        <v>0.3333</v>
+      </c>
+      <c r="C16">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0.3333</v>
+      </c>
+      <c r="B17">
+        <v>0.3333</v>
+      </c>
+      <c r="C17">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0.3333</v>
+      </c>
+      <c r="B18">
+        <v>0.3333</v>
+      </c>
+      <c r="C18">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0.3333</v>
+      </c>
+      <c r="B20">
+        <v>0.3333</v>
+      </c>
+      <c r="C20">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0.3333</v>
+      </c>
+      <c r="B21">
+        <v>0.3333</v>
+      </c>
+      <c r="C21">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>0.3333</v>
+      </c>
+      <c r="B22">
+        <v>0.3333</v>
+      </c>
+      <c r="C22">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>0.3333</v>
+      </c>
+      <c r="B24">
+        <v>0.3333</v>
+      </c>
+      <c r="C24">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>0.3333</v>
+      </c>
+      <c r="B25">
+        <v>0.3333</v>
+      </c>
+      <c r="C25">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0.3333</v>
+      </c>
+      <c r="B26">
+        <v>0.3333</v>
+      </c>
+      <c r="C26">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0.25</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0.25</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>0.25</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+      <c r="D30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>0.25</v>
+      </c>
+      <c r="B33">
+        <v>0.25</v>
+      </c>
+      <c r="C33">
+        <v>0.25</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>0.25</v>
+      </c>
+      <c r="B34">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <v>0.25</v>
+      </c>
+      <c r="D34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>0.25</v>
+      </c>
+      <c r="B35">
+        <v>0.25</v>
+      </c>
+      <c r="C35">
+        <v>0.25</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>0.25</v>
+      </c>
+      <c r="B38">
+        <v>0.25</v>
+      </c>
+      <c r="C38">
+        <v>0.25</v>
+      </c>
+      <c r="D38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>0.25</v>
+      </c>
+      <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="C39">
+        <v>0.25</v>
+      </c>
+      <c r="D39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>0.25</v>
+      </c>
+      <c r="B40">
+        <v>0.25</v>
+      </c>
+      <c r="C40">
+        <v>0.25</v>
+      </c>
+      <c r="D40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>0.25</v>
+      </c>
+      <c r="B43">
+        <v>0.25</v>
+      </c>
+      <c r="C43">
+        <v>0.25</v>
+      </c>
+      <c r="D43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>0.25</v>
+      </c>
+      <c r="B44">
+        <v>0.25</v>
+      </c>
+      <c r="C44">
+        <v>0.25</v>
+      </c>
+      <c r="D44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>0.25</v>
+      </c>
+      <c r="B45">
+        <v>0.25</v>
+      </c>
+      <c r="C45">
+        <v>0.25</v>
+      </c>
+      <c r="D45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>0.25</v>
+      </c>
+      <c r="B48">
+        <v>0.25</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>0.25</v>
+      </c>
+      <c r="B49">
+        <v>0.25</v>
+      </c>
+      <c r="C49">
+        <v>0.25</v>
+      </c>
+      <c r="D49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>0.25</v>
+      </c>
+      <c r="B50">
+        <v>0.25</v>
+      </c>
+      <c r="C50">
+        <v>0.25</v>
+      </c>
+      <c r="D50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>0.25</v>
+      </c>
+      <c r="B53">
+        <v>0.25</v>
+      </c>
+      <c r="C53">
+        <v>0.25</v>
+      </c>
+      <c r="D53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>0.25</v>
+      </c>
+      <c r="B54">
+        <v>0.25</v>
+      </c>
+      <c r="C54">
+        <v>0.25</v>
+      </c>
+      <c r="D54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>0.25</v>
+      </c>
+      <c r="B55">
+        <v>0.25</v>
+      </c>
+      <c r="C55">
+        <v>0.25</v>
+      </c>
+      <c r="D55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>0.25</v>
+      </c>
+      <c r="B58">
+        <v>0.25</v>
+      </c>
+      <c r="C58">
+        <v>0.25</v>
+      </c>
+      <c r="D58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>0.25</v>
+      </c>
+      <c r="B59">
+        <v>0.25</v>
+      </c>
+      <c r="C59">
+        <v>0.25</v>
+      </c>
+      <c r="D59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>0.25</v>
+      </c>
+      <c r="B60">
+        <v>0.25</v>
+      </c>
+      <c r="C60">
+        <v>0.25</v>
+      </c>
+      <c r="D60">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>0.25</v>
+      </c>
+      <c r="B63">
+        <v>0.25</v>
+      </c>
+      <c r="C63">
+        <v>0.25</v>
+      </c>
+      <c r="D63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>0.25</v>
+      </c>
+      <c r="B64">
+        <v>0.25</v>
+      </c>
+      <c r="C64">
+        <v>0.25</v>
+      </c>
+      <c r="D64">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>0.25</v>
+      </c>
+      <c r="B65">
+        <v>0.25</v>
+      </c>
+      <c r="C65">
+        <v>0.25</v>
+      </c>
+      <c r="D65">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>0.25</v>
+      </c>
+      <c r="B68">
+        <v>0.25</v>
+      </c>
+      <c r="C68">
+        <v>0.25</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>0.25</v>
+      </c>
+      <c r="B69">
+        <v>0.25</v>
+      </c>
+      <c r="C69">
+        <v>0.25</v>
+      </c>
+      <c r="D69">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>0.25</v>
+      </c>
+      <c r="B70">
+        <v>0.25</v>
+      </c>
+      <c r="C70">
+        <v>0.25</v>
+      </c>
+      <c r="D70">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>0.25</v>
+      </c>
+      <c r="B73">
+        <v>0.25</v>
+      </c>
+      <c r="C73">
+        <v>0.25</v>
+      </c>
+      <c r="D73">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>0.25</v>
+      </c>
+      <c r="B74">
+        <v>0.25</v>
+      </c>
+      <c r="C74">
+        <v>0.25</v>
+      </c>
+      <c r="D74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>0.25</v>
+      </c>
+      <c r="B75">
+        <v>0.25</v>
+      </c>
+      <c r="C75">
+        <v>0.25</v>
+      </c>
+      <c r="D75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>0.25</v>
+      </c>
+      <c r="B78">
+        <v>0.25</v>
+      </c>
+      <c r="C78">
+        <v>0.25</v>
+      </c>
+      <c r="D78">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>0.25</v>
+      </c>
+      <c r="B79">
+        <v>0.25</v>
+      </c>
+      <c r="C79">
+        <v>0.25</v>
+      </c>
+      <c r="D79">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>0.25</v>
+      </c>
+      <c r="B80">
+        <v>0.25</v>
+      </c>
+      <c r="C80">
+        <v>0.25</v>
+      </c>
+      <c r="D80">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>0.25</v>
+      </c>
+      <c r="B83">
+        <v>0.25</v>
+      </c>
+      <c r="C83">
+        <v>0.25</v>
+      </c>
+      <c r="D83">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>0.25</v>
+      </c>
+      <c r="B84">
+        <v>0.25</v>
+      </c>
+      <c r="C84">
+        <v>0.25</v>
+      </c>
+      <c r="D84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>0.25</v>
+      </c>
+      <c r="B85">
+        <v>0.25</v>
+      </c>
+      <c r="C85">
+        <v>0.25</v>
+      </c>
+      <c r="D85">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>0.25</v>
+      </c>
+      <c r="B88">
+        <v>0.25</v>
+      </c>
+      <c r="C88">
+        <v>0.25</v>
+      </c>
+      <c r="D88">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>0.25</v>
+      </c>
+      <c r="B89">
+        <v>0.25</v>
+      </c>
+      <c r="C89">
+        <v>0.25</v>
+      </c>
+      <c r="D89">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>0.25</v>
+      </c>
+      <c r="B90">
+        <v>0.25</v>
+      </c>
+      <c r="C90">
+        <v>0.25</v>
+      </c>
+      <c r="D90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>0.25</v>
+      </c>
+      <c r="B93">
+        <v>0.25</v>
+      </c>
+      <c r="C93">
+        <v>0.25</v>
+      </c>
+      <c r="D93">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>0.25</v>
+      </c>
+      <c r="B94">
+        <v>0.25</v>
+      </c>
+      <c r="C94">
+        <v>0.25</v>
+      </c>
+      <c r="D94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>0.25</v>
+      </c>
+      <c r="B95">
+        <v>0.25</v>
+      </c>
+      <c r="C95">
+        <v>0.25</v>
+      </c>
+      <c r="D95">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>0.25</v>
+      </c>
+      <c r="B98">
+        <v>0.25</v>
+      </c>
+      <c r="C98">
+        <v>0.25</v>
+      </c>
+      <c r="D98">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>0.25</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>0.25</v>
+      </c>
+      <c r="B100">
+        <v>0.25</v>
+      </c>
+      <c r="C100">
+        <v>0.25</v>
+      </c>
+      <c r="D100">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +2606,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.5444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -626,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,6 +2637,207 @@
       </c>
       <c r="B3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0.25</v>
+      </c>
+      <c r="B1">
+        <v>0.25</v>
+      </c>
+      <c r="C1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.25</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.25</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
